--- a/data/labelled-skyspark-data/labelled_anomalies_summary.xlsx
+++ b/data/labelled-skyspark-data/labelled_anomalies_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\data\labelled-skyspark-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2D7211-A69E-4F03-8E9E-B29F1178515F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007373FA-AC8E-475C-A808-C97D7E4DDFCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - HW Main Meter Power" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="147">
   <si>
     <t>Photo #</t>
   </si>
@@ -456,6 +456,21 @@
   </si>
   <si>
     <t>5e</t>
+  </si>
+  <si>
+    <t>2j</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>2l</t>
+  </si>
+  <si>
+    <t>Sharp drop in points</t>
+  </si>
+  <si>
+    <t>Points drop well below trend</t>
   </si>
 </sst>
 </file>
@@ -504,11 +519,11 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,7 +1255,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,15 +1269,15 @@
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1430,54 +1445,98 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -1892,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3069FC3-6DD3-4D62-A6BD-FCBB343355C1}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E32"/>
     </sheetView>
   </sheetViews>
@@ -2002,7 +2061,7 @@
       <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>43843</v>
       </c>
       <c r="E10" s="1"/>
@@ -2017,7 +2076,7 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>43908</v>
       </c>
     </row>
@@ -2031,7 +2090,7 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>43912</v>
       </c>
     </row>
@@ -2045,7 +2104,7 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>43915</v>
       </c>
     </row>
@@ -2059,7 +2118,7 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>43930</v>
       </c>
     </row>
@@ -2073,7 +2132,7 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>43931</v>
       </c>
     </row>
@@ -2087,7 +2146,7 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>43961</v>
       </c>
     </row>
@@ -2101,7 +2160,7 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>44029</v>
       </c>
     </row>
@@ -2115,7 +2174,7 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>44039</v>
       </c>
     </row>
